--- a/data/trans_dic/RUIDO_1_R-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/RUIDO_1_R-Dificultad-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8920654415399265</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8978051052272179</v>
+        <v>0.8978051052272178</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8511437303331533</v>
+        <v>0.8534046770832872</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8525469685152077</v>
+        <v>0.8579478034446593</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.866233639933583</v>
+        <v>0.8675947156844183</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9397546935958698</v>
+        <v>0.9398465659134341</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9190859905512502</v>
+        <v>0.9199320356313411</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9199209451465815</v>
+        <v>0.921139733315068</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7854283695119079</v>
+        <v>0.7854283695119078</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.8325945077582743</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.8105256599351662</v>
+        <v>0.810525659935166</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7438853680777825</v>
+        <v>0.7377122096880009</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8008074096283777</v>
+        <v>0.8004836062739081</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7843111842812258</v>
+        <v>0.7825881406431362</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8250961815196175</v>
+        <v>0.8234463567424551</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8590218213154992</v>
+        <v>0.8614113981851376</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8356141104069161</v>
+        <v>0.8337801164904346</v>
       </c>
     </row>
     <row r="10">
@@ -677,7 +677,7 @@
         <v>0.7373358323425772</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.778968945950147</v>
+        <v>0.7789689459501471</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7575628294121435</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6924716069666773</v>
+        <v>0.69709525249497</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7464004865531549</v>
+        <v>0.7467371372731055</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.731128611526864</v>
+        <v>0.7329984924912624</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7744912459883989</v>
+        <v>0.7740445507491603</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.810735443718517</v>
+        <v>0.8068116033475152</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7814295352843359</v>
+        <v>0.7830291145073502</v>
       </c>
     </row>
     <row r="13">
@@ -732,7 +732,7 @@
         <v>0.6512451903855888</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6378882156088639</v>
+        <v>0.6378882156088638</v>
       </c>
       <c r="E13" s="5" t="n">
         <v>0.6447719689608181</v>
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5958634998686904</v>
+        <v>0.6011049717079431</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.5944864363300266</v>
+        <v>0.5882366594410533</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.6069033275210172</v>
+        <v>0.616184604804376</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7002327541708434</v>
+        <v>0.7015597034334085</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.6796553854049499</v>
+        <v>0.6805757174929846</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6733671469635325</v>
+        <v>0.6802175760750658</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.7568498849795896</v>
+        <v>0.7568498849795895</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.7866737105359022</v>
+        <v>0.7866737105359023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.7720254364635271</v>
+        <v>0.7720254364635268</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7328249082510591</v>
+        <v>0.7344707123981077</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7697465555917523</v>
+        <v>0.7695163199194492</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7569020683590307</v>
+        <v>0.7568483513965546</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7802200210310032</v>
+        <v>0.7795299474268776</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8052019801067104</v>
+        <v>0.8037752443695299</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7848160443931539</v>
+        <v>0.7857517724802535</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>224647</v>
+        <v>225243</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>268582</v>
+        <v>270284</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>501522</v>
+        <v>502310</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>248034</v>
+        <v>248058</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>289544</v>
+        <v>289811</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>532606</v>
+        <v>533311</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>376027</v>
+        <v>372906</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>460350</v>
+        <v>460164</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>847328</v>
+        <v>845467</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>417078</v>
+        <v>416244</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>493815</v>
+        <v>495188</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>902753</v>
+        <v>900772</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>418466</v>
+        <v>421260</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>426210</v>
+        <v>426403</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>859317</v>
+        <v>861514</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>468031</v>
+        <v>467761</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>462947</v>
+        <v>460706</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>918437</v>
+        <v>920317</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>235089</v>
+        <v>237157</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>220558</v>
+        <v>218239</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>464610</v>
+        <v>471715</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>276266</v>
+        <v>276790</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>252156</v>
+        <v>252498</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>515491</v>
+        <v>520735</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1295831</v>
+        <v>1298741</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1410113</v>
+        <v>1409691</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>2724989</v>
+        <v>2724796</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1379638</v>
+        <v>1378418</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1475064</v>
+        <v>1472450</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>2825485</v>
+        <v>2828853</v>
       </c>
     </row>
     <row r="24">
